--- a/students.xlsx
+++ b/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49ae2bbd3020a361/AI编程/课堂工具（画笔^M点名^M计时）/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{A4290281-0EC4-4EA7-BA9A-39CC407AFABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD9443F-04EC-45B9-947D-FE05698A63B0}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{A4290281-0EC4-4EA7-BA9A-39CC407AFABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B5BF4A4-E730-4D9B-AA11-3BCDFB5EC297}"/>
   <bookViews>
-    <workbookView xWindow="20115" yWindow="3375" windowWidth="17205" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19605" yWindow="2850" windowWidth="17205" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>学号</t>
   </si>
@@ -61,19 +61,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杨九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>赵八</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黄七</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>周六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨十</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴七</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -523,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -532,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -544,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -555,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -566,12 +578,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
